--- a/output/fit_clients/fit_round_22.xlsx
+++ b/output/fit_clients/fit_round_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>8606928419.974962</v>
+        <v>10199196274.06844</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1445591492445129</v>
+        <v>0.1225046558988904</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1903039298321043</v>
+        <v>0.157319992388884</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3362779859318045</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.309924353844048</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7493427327916623</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.676930301989199</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>9348399677.920145</v>
+        <v>10329391821.28605</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1555091245653113</v>
+        <v>0.1524052352003817</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.231781129970104</v>
+        <v>0.2477456580814519</v>
       </c>
       <c r="I3" t="n">
-        <v>3.114685441322602</v>
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6332798307965799</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.922451244200586</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6722040038363579</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.521628832526572</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>8803428159.421835</v>
+        <v>9857174889.128641</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1687063383836985</v>
+        <v>0.1328671769275847</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2817706014321553</v>
+        <v>0.1886584441568126</v>
       </c>
       <c r="I4" t="n">
-        <v>3.182029991405253</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.185793820368474</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7612492053962137</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.039190287555799</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>7955644086.150361</v>
+        <v>12283134813.91961</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1824040950406807</v>
+        <v>0.08764613482708017</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3336560694499812</v>
+        <v>0.05190046385086547</v>
       </c>
       <c r="I5" t="n">
-        <v>3.109073395482381</v>
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9820441340694044</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1119437916671736</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.157124797793895</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7627857276616555</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.09858975543922</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>10612797379.50646</v>
+        <v>7878448576.245627</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1152622712238087</v>
+        <v>0.1708923333027063</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07933085112796819</v>
+        <v>0.3036545465270725</v>
       </c>
       <c r="I6" t="n">
-        <v>2.620825407383162</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.261902455676532</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7682890292758484</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.103878129840437</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>10809413601.21561</v>
+        <v>5443644620.76109</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1088038771934619</v>
+        <v>0.2944840803689112</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05486722505403982</v>
+        <v>0.6774220876131962</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2755639467334224</v>
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9856622939127258</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3840031395057663</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.931784360892812</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8693414060595621</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.45504376029843</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>10343762008.72993</v>
+        <v>8556313939.475056</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1478885301797299</v>
+        <v>0.1408222522599403</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.202915227605839</v>
+        <v>0.212716271776457</v>
       </c>
       <c r="I8" t="n">
-        <v>3.277434770689008</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.166127444216286</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.740249975626425</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.638872068312214</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>6450450546.73657</v>
+        <v>9729311804.628609</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1802989033980569</v>
+        <v>0.1370363635962116</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3256818546657613</v>
+        <v>0.2012669450191477</v>
       </c>
       <c r="I9" t="n">
-        <v>2.491748353058082</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.471342665530431</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7657921208611819</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.844499751693206</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>5885634835.349151</v>
+        <v>4582945831.276366</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2461115428534856</v>
+        <v>0.2983499326282013</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5749722812037994</v>
+        <v>0.6891132411688061</v>
       </c>
       <c r="I10" t="n">
-        <v>3.10346134964216</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.145081606960256</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7722451363592001</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.299821120223747</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>10297769386.48912</v>
+        <v>11369872598.43231</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.104543930786844</v>
+        <v>0.1333899563843058</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03873105629493456</v>
+        <v>0.1902394396254206</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2570317018475081</v>
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9774619904838113</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3898658117958285</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.238371813205266</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8792228413231683</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.3460850132581</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>4717591318.985162</v>
+        <v>7943696045.071301</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2687356055828768</v>
+        <v>0.1602558220728817</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6606695316788074</v>
+        <v>0.271487490534435</v>
       </c>
       <c r="I12" t="n">
-        <v>2.716230186666918</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.217555442844212</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7540541092009185</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.863526741174159</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>10163598040.09543</v>
+        <v>11661347079.30328</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1219028404224816</v>
+        <v>0.122867994602696</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1044845350052676</v>
+        <v>0.158418805352747</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3168467320066507</v>
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9833216389446746</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3288588223971576</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.931965579642206</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.9125713871365853</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.3194621630895</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>9352253442.964039</v>
+        <v>12273338650.6618</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1481629340405086</v>
+        <v>0.1312540047864756</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2039546366929572</v>
+        <v>0.1837798709604326</v>
       </c>
       <c r="I14" t="n">
-        <v>2.968772249476859</v>
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3490706857661113</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.197576687175548</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6054118655251449</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.910660623327351</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>10598824596.10451</v>
+        <v>11618006653.23073</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1386453541782446</v>
+        <v>0.08454731343494719</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1679031796612045</v>
+        <v>0.04252897360579122</v>
       </c>
       <c r="I15" t="n">
-        <v>3.148357716363928</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.802856112733059</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6559936326848702</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.317016540964346</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>9373250595.039509</v>
+        <v>4655084792.339825</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1668338869364677</v>
+        <v>0.2864114338355258</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2746779787412198</v>
+        <v>0.6530086998549942</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35039136661188</v>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5430529773554426</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.146159734600491</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.642657145939425</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.706983184188008</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>7872363606.178854</v>
+        <v>13594495061.54705</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1474004286449923</v>
+        <v>0.1055887484971913</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2010663572247777</v>
+        <v>0.1061627163987097</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2887225424925312</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.466828357790163</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7847864794692494</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.228901231594826</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>6981015625.159718</v>
+        <v>8176775433.150912</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1748507388524966</v>
+        <v>0.134224599779313</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3050448573556632</v>
+        <v>0.1927635774974137</v>
       </c>
       <c r="I18" t="n">
-        <v>2.615213361542942</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.217589629138569</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7171769675187198</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.125949721235827</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>5966346131.019231</v>
+        <v>9052300237.228798</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2203918028093636</v>
+        <v>0.1446809060324473</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4775489743876535</v>
+        <v>0.2243856555879833</v>
       </c>
       <c r="I19" t="n">
-        <v>2.817247011790894</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.558029274308435</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7612492053962137</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.666954833615838</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>10591343394.50556</v>
+        <v>3689288844.011409</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1446788280696223</v>
+        <v>0.4011492221332354</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1907572589434416</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.283046816529229</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.802684004946022</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7927403180789855</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.052122356633689</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>11600992468.77384</v>
+        <v>14010318446.38616</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1219266889283225</v>
+        <v>0.07048448140411252</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1045748703001677</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.030504753719288</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.170716110388938</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.3083284825727834</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.99585354106673</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>8770367117.650417</v>
+        <v>8447758279.975466</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1636676892477165</v>
+        <v>0.1872818217053193</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2626847996366639</v>
+        <v>0.3532198203039916</v>
       </c>
       <c r="I22" t="n">
-        <v>3.075401120441056</v>
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3456865389672782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.893467760354323</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4805903138783775</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.718338517213226</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>5880244993.707326</v>
+        <v>12443224320.1846</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.212927934353056</v>
+        <v>0.1132529466429401</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4492767311454287</v>
+        <v>0.1293408699836643</v>
       </c>
       <c r="I23" t="n">
-        <v>2.682557911625592</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.528696989556856</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7800184741536054</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.071672493515251</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>7185316128.416318</v>
+        <v>6005622143.726111</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1913875082769806</v>
+        <v>0.2481729410094522</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3676841670308619</v>
+        <v>0.5373674230083701</v>
       </c>
       <c r="I24" t="n">
-        <v>2.946324066115975</v>
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3335330986136804</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.936639855858729</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6846406892800764</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9.756173929742799</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>10548884070.27673</v>
+        <v>7146753968.718186</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1253963870668738</v>
+        <v>0.1806917204163407</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1177176728997124</v>
+        <v>0.3332899624230236</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2925990385077089</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.389623264992656</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7576715859295534</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.763808453598413</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>11608538581.43391</v>
+        <v>11941523433.65552</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0943189370754329</v>
+        <v>0.1296366831753653</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1788887488905556</v>
       </c>
       <c r="I26" t="n">
-        <v>2.345835161212338</v>
+        <v>12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9837129788426207</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3660281665441143</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.691823577447028</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8107678655168803</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13.52353373289058</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>8377178989.758952</v>
+        <v>6213784122.23051</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1747890324165239</v>
+        <v>0.2474469501602298</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3048111207380306</v>
+        <v>0.5351718733781873</v>
       </c>
       <c r="I27" t="n">
-        <v>3.137133624683486</v>
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9821836443493707</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3444649342140411</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.030062147343628</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8683462338106425</v>
+      </c>
+      <c r="N27" t="n">
+        <v>14.33686252886922</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>5699761059.89854</v>
+        <v>7687534834.824843</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2022070026950421</v>
+        <v>0.1969431622139109</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4086671210762036</v>
+        <v>0.3824377541160097</v>
       </c>
       <c r="I28" t="n">
-        <v>2.469300169697198</v>
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4054813749558649</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.253987376365302</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5711067328874788</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.168147281384275</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>7667192429.654251</v>
+        <v>5667471408.853423</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1779924271525739</v>
+        <v>0.2856270289200265</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3169451978199936</v>
+        <v>0.6506364937535222</v>
       </c>
       <c r="I29" t="n">
-        <v>2.923875882755091</v>
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3039302971158022</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.733144377290792</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.416697640177206</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.600808426253328</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>5525929952.875811</v>
+        <v>13006370484.97616</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2787225558656325</v>
+        <v>0.09606438871192048</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6984989078655572</v>
+        <v>0.07735904121922317</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2865993846531184</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.14570848852089</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7493427327916623</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.841146167312356</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>8027617682.075864</v>
+        <v>9608586108.447708</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1833790843436542</v>
+        <v>0.1022284901143159</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3373492126094028</v>
+        <v>0.09600058548790896</v>
       </c>
       <c r="I31" t="n">
-        <v>3.153969762204148</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.294396517772718</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5709146665161494</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.123896812550271</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>7026083635.472322</v>
+        <v>11243934386.59168</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1670186096384424</v>
+        <v>0.0924852275232121</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2753776862981204</v>
+        <v>0.06653490199949187</v>
       </c>
       <c r="I32" t="n">
-        <v>2.514196536418965</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.995465603893853</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.2324463142725585</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-7.644391889345023</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>9317946950.002195</v>
+        <v>10908462513.05497</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1177860762557509</v>
+        <v>0.1246246580004313</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08889072348862334</v>
+        <v>0.1637313264091553</v>
       </c>
       <c r="I33" t="n">
-        <v>2.351447207052559</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.254884571877117</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7707671453062791</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.160458334248466</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>4454620038.444582</v>
+        <v>9107026280.558359</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.315764850393648</v>
+        <v>0.121952141762339</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8388107002392775</v>
+        <v>0.1556490729696162</v>
       </c>
       <c r="I34" t="n">
-        <v>3.013668616198626</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.611972313833483</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.512026370573987</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6.628555097646258</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>4714249455.000595</v>
+        <v>13320069823.91719</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2633697838545634</v>
+        <v>0.1201530706037499</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.640344439136603</v>
+        <v>0.1502083018894516</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3226033991058761</v>
+        <v>8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3187874922655944</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.167293493675031</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.6019187771884152</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8.871082050093275</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>6785789561.645898</v>
+        <v>9463825152.61171</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2277465409088154</v>
+        <v>0.1281487718172089</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.50540784485781</v>
+        <v>0.1743889907522204</v>
       </c>
       <c r="I36" t="n">
-        <v>3.311107045730334</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.201534609468055</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7418735419641823</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.635936229815592</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>9899315747.535273</v>
+        <v>8990182584.40078</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1214528398388897</v>
+        <v>0.1101345173698711</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1027799864815455</v>
+        <v>0.1199100813661879</v>
       </c>
       <c r="I37" t="n">
-        <v>2.575929040661395</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.551133021980117</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.4427568090083003</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.304003158185889</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>10233896815.4318</v>
+        <v>9853728009.116739</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1046845135652071</v>
+        <v>0.1278629356152623</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0392635670872688</v>
+        <v>0.1735245617196107</v>
       </c>
       <c r="I38" t="n">
-        <v>2.29532674865035</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.24205488865929</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7514451897103235</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.786848905547179</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>5397132566.617903</v>
+        <v>3988721790.76799</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2159718212610882</v>
+        <v>0.3762885828422278</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4608066116048014</v>
+        <v>0.9248161771461046</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3064542402218884</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.936397220077374</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7964197176110533</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.991997132143693</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>8770927202.335178</v>
+        <v>11670576341.27179</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1588789244116619</v>
+        <v>0.1191797259473159</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2445455297570701</v>
+        <v>0.1472647021143811</v>
       </c>
       <c r="I40" t="n">
-        <v>2.985608386997521</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.457749516397952</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7766399642813204</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.075049769228457</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>6254578819.414758</v>
+        <v>14387036880.70412</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2047910414085808</v>
+        <v>0.08156556000588831</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4184551514366199</v>
+        <v>0.03351152160143163</v>
       </c>
       <c r="I41" t="n">
-        <v>2.744290415868022</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.307379757212379</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7336711326607305</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.366042896002231</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>8151450714.648404</v>
+        <v>5262931714.103857</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1494232612866306</v>
+        <v>0.2150087710557876</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2087286059390326</v>
+        <v>0.4370719700352566</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3048524930302643</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.258761833689505</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7246793398797793</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.234824963906082</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>6993800641.865746</v>
+        <v>10406704905.53736</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.182396238514985</v>
+        <v>0.09514341273126299</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3336263098679619</v>
+        <v>0.07457381537800793</v>
       </c>
       <c r="I43" t="n">
-        <v>2.73306632418758</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.779206681496554</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6193531312718864</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.607855943941175</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>6978301142.971725</v>
+        <v>15079085319.89426</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2158332263314453</v>
+        <v>0.1023152716010244</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4602816305462605</v>
+        <v>0.09626303102872188</v>
       </c>
       <c r="I44" t="n">
-        <v>3.22692635812702</v>
+        <v>13</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9858522574662006</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3407037962149504</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.575255747872316</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7871046673920898</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13.16683759996948</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>8132565339.452018</v>
+        <v>12508920815.59399</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1926077633094732</v>
+        <v>0.0787350607234004</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3723063475124895</v>
+        <v>0.02495149407552549</v>
       </c>
       <c r="I45" t="n">
-        <v>3.356003412452101</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.262492023248477</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.571907315679773</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.175654290346984</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>7345568107.199022</v>
+        <v>5945707548.809727</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1462037904117281</v>
+        <v>0.2616875531174552</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.196533634361046</v>
+        <v>0.5782384638039599</v>
       </c>
       <c r="I46" t="n">
-        <v>2.300938794490571</v>
+        <v>7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9821137919615912</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3385361969010371</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.383717203027758</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9090911561448479</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14.7981059198692</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>6891500270.096228</v>
+        <v>6141077884.081214</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1805427267265603</v>
+        <v>0.1787185296647975</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3266054283450044</v>
+        <v>0.3273226169262151</v>
       </c>
       <c r="I47" t="n">
-        <v>2.665721774104929</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.305096060960421</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7171769675187198</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.038443289413975</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>8782264510.063719</v>
+        <v>11908653919.32663</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1744815529347888</v>
+        <v>0.1282348433622421</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3036464251447877</v>
+        <v>0.1746492892794942</v>
       </c>
       <c r="I48" t="n">
-        <v>3.283046816529229</v>
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2355863984966745</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.280767404623395</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.6211509909976742</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9.142252415330089</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>9056967857.746059</v>
+        <v>3782660282.783804</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1272535817839175</v>
+        <v>0.2984558500107119</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1247525049168897</v>
+        <v>0.6894335576993108</v>
       </c>
       <c r="I49" t="n">
-        <v>2.469300169697198</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.396003048151897</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7241086484774557</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.086169921397218</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>5950935426.820679</v>
+        <v>8184000935.089377</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2328469745705669</v>
+        <v>0.1667524479559576</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5247276790657678</v>
+        <v>0.2911346590494414</v>
       </c>
       <c r="I50" t="n">
-        <v>2.968772249476859</v>
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9771907526911405</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2983486815262115</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.587520094930217</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8747420317993431</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13.90732054105665</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>9723769195.358866</v>
+        <v>10415467211.67771</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1284943117115901</v>
+        <v>0.1292660648473329</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1294522418587198</v>
+        <v>0.1777679208058461</v>
       </c>
       <c r="I51" t="n">
-        <v>2.676945865785371</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.163803870319056</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7682890292758484</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.201976715197913</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>7645819174.973259</v>
+        <v>4019579998.640208</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1832862663803321</v>
+        <v>0.278909468247742</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3369976292379042</v>
+        <v>0.6303211717827789</v>
       </c>
       <c r="I52" t="n">
-        <v>3.002444524518184</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.230135291120403</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6917830455709966</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.605525620299529</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>7691243076.236332</v>
+        <v>15217786247.40694</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1549583647515158</v>
+        <v>0.09088299030587743</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2296949175033623</v>
+        <v>0.06168939832165279</v>
       </c>
       <c r="I53" t="n">
-        <v>2.553480857300511</v>
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9819043916719232</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2064432452647268</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.251624251391448</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8627753713685041</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.00388317597864</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>8785950410.769581</v>
+        <v>7463634182.035454</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1648680680264756</v>
+        <v>0.2133798470232199</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2672316912404674</v>
+        <v>0.4321457597928948</v>
       </c>
       <c r="I54" t="n">
-        <v>3.10346134964216</v>
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2719246260592891</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.120430627468726</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5992675808265298</v>
+      </c>
+      <c r="N54" t="n">
+        <v>8.864920989061869</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>10584670622.97268</v>
+        <v>11592608037.83417</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.14031557361611</v>
+        <v>0.1141065018055364</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1742297716277761</v>
+        <v>0.1319222010343056</v>
       </c>
       <c r="I55" t="n">
-        <v>3.182029991405253</v>
+        <v>7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9821246345392465</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3245575023968459</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.369738508523567</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8453084135379356</v>
+      </c>
+      <c r="N55" t="n">
+        <v>13.53642976223515</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>6520822470.146954</v>
+        <v>6060114531.465184</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2353940085054038</v>
+        <v>0.2066080456894073</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5343755397392843</v>
+        <v>0.4116664026080901</v>
       </c>
       <c r="I56" t="n">
-        <v>3.28865886236945</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.32740397352149</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7498696373101685</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.669988772681881</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>4889120345.264586</v>
+        <v>6073821914.316374</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2234114836338496</v>
+        <v>0.1621533614080044</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4889871650904386</v>
+        <v>0.2772260501732359</v>
       </c>
       <c r="I57" t="n">
-        <v>2.340223115372117</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.940758712314418</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6567120146558213</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.193481580802008</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>7493198219.100866</v>
+        <v>10018840822.00101</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1520625261314286</v>
+        <v>0.161573883522055</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2187258262959543</v>
+        <v>0.2754735866820525</v>
       </c>
       <c r="I58" t="n">
-        <v>2.441239940496093</v>
+        <v>8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4620020024359218</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.310508003845359</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.6080011476141927</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.849514948438495</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>6814735701.40338</v>
+        <v>12263200819.87907</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1998731659863936</v>
+        <v>0.1287993398460529</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.399826826060181</v>
+        <v>0.1763564458470984</v>
       </c>
       <c r="I59" t="n">
-        <v>2.91826383691487</v>
+        <v>9</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9838106560031</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.370934862571071</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.056532075700658</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8806267724542607</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14.55600337338456</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>7108382997.534042</v>
+        <v>12816339777.09042</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2159369494486287</v>
+        <v>0.07929903058724359</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4606745213395555</v>
+        <v>0.02665705803314499</v>
       </c>
       <c r="I60" t="n">
-        <v>3.28865886236945</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.098185391183597</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.698506842451705</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.871951457850503</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>6492653430.072803</v>
+        <v>8721100574.628139</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1629893804432025</v>
+        <v>0.1150343768444359</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2601154468102008</v>
+        <v>0.134728291084468</v>
       </c>
       <c r="I61" t="n">
-        <v>2.267266519449246</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.136532971590864</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6953842578121491</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.771152184652118</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>6730489767.69076</v>
+        <v>13554931001.17724</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2237800371126278</v>
+        <v>0.112467188498975</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4903832016981017</v>
+        <v>0.1269645714335604</v>
       </c>
       <c r="I62" t="n">
-        <v>3.22692635812702</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.769520414265614</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.800512186813169</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.240723321997766</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>9651823780.626486</v>
+        <v>9623845112.712595</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1522487172786549</v>
+        <v>0.1622175358929867</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2194310961482762</v>
+        <v>0.2774201273670753</v>
       </c>
       <c r="I63" t="n">
-        <v>3.148357716363928</v>
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9856802555050299</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.514932409011619</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.56011341513834</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.9118293831679832</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14.67647424822133</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>6392769758.502372</v>
+        <v>7893495832.033117</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2138856288671221</v>
+        <v>0.1579565843235336</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.4529043637078083</v>
+        <v>0.2645341100673244</v>
       </c>
       <c r="I64" t="n">
-        <v>2.929487928595312</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.441552584925354</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7488149623616287</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.534746662307221</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>10421127022.43896</v>
+        <v>5399274314.905685</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1158741072246701</v>
+        <v>0.1858076310793119</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08164841290467487</v>
+        <v>0.3487615565569808</v>
       </c>
       <c r="I65" t="n">
-        <v>2.587153132341837</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.703114659204485</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6234343281663721</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7.765571904122957</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>6050306421.255569</v>
+        <v>8320779737.625432</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2034794957946142</v>
+        <v>0.1463824771724573</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4134871731237116</v>
+        <v>0.2295315660236046</v>
       </c>
       <c r="I66" t="n">
-        <v>2.637661544903825</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.617315575541117</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.742951330719294</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.241711038844763</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>5031661740.348788</v>
+        <v>12256298532.71282</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2389469070145916</v>
+        <v>0.08228137943183612</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5478334954166528</v>
+        <v>0.03567631069980787</v>
       </c>
       <c r="I67" t="n">
-        <v>2.575929040661395</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.231430566830559</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.33828648095673</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3.534299052304041</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>10491603375.73276</v>
+        <v>7660409734.698507</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1113507533750442</v>
+        <v>0.1754145165255819</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.06451448817704855</v>
+        <v>0.317330583509135</v>
       </c>
       <c r="I68" t="n">
-        <v>2.502972444738524</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.857856022258474</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.2083726064810803</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.309596107363132</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>4020058854.77976</v>
+        <v>13881179595.51737</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3544595269558724</v>
+        <v>0.08868938633987286</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9853815186225944</v>
+        <v>0.05505547672128008</v>
       </c>
       <c r="I69" t="n">
-        <v>3.052952937080172</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.137933281523937</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7456299600960705</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.774665920397473</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>8341234808.057214</v>
+        <v>5801570040.561378</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1592127257606019</v>
+        <v>0.1819531889850037</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2458099294429781</v>
+        <v>0.3371049097496765</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3342879519646377</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.122686857731384</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7076843367281962</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.030999876832539</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>9165641669.389473</v>
+        <v>12578501269.28156</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1191717578975306</v>
+        <v>0.1193234740664558</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.09413952023015394</v>
+        <v>0.1476994267808907</v>
       </c>
       <c r="I71" t="n">
-        <v>2.340223115372117</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.934898623759461</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7964197176110533</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.993495728461607</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>6571458869.865921</v>
+        <v>5885969342.04529</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1861466615288971</v>
+        <v>0.2367520792277476</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3478324648037381</v>
+        <v>0.5028283253213254</v>
       </c>
       <c r="I72" t="n">
-        <v>0.28233479866962</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.375542249851783</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7771247097159252</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.166951944466721</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>7805050178.394155</v>
+        <v>4647570672.329404</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1708213886556092</v>
+        <v>0.3218179551103751</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2897821595279388</v>
+        <v>0.7600854967241651</v>
       </c>
       <c r="I73" t="n">
-        <v>2.85653133267244</v>
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9842777706569913</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4294444189926134</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3.718615832396619</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.911768016897786</v>
+      </c>
+      <c r="N73" t="n">
+        <v>14.5167445055591</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>10866508506.29651</v>
+        <v>9567886311.801418</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1091964055715268</v>
+        <v>0.106222344923395</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0563540757198964</v>
+        <v>0.1080788457834353</v>
       </c>
       <c r="I74" t="n">
-        <v>2.54225676562007</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.820826859512447</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6274541206845018</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.728255554177588</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>8582809292.921744</v>
+        <v>14154906865.78794</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.173348080939769</v>
+        <v>0.07328048498200126</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2993529684555331</v>
+        <v>0.008455705230994674</v>
       </c>
       <c r="I75" t="n">
-        <v>3.187642037245474</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.229485319300442</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7034362600808531</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.839239882316621</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>4888911585.198688</v>
+        <v>10278603760.85299</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2378871328990775</v>
+        <v>0.153667969575366</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5438191975025053</v>
+        <v>0.2515644334737116</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3182150668799877</v>
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2311353438507923</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.079641345260229</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.5947871170881298</v>
+      </c>
+      <c r="N76" t="n">
+        <v>8.816100996502366</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>3967268587.672535</v>
+        <v>6381099941.129947</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3433301199299664</v>
+        <v>0.1884157936863625</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9432246525925891</v>
+        <v>0.3566491910271682</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3527560274542114</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.194230819889572</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7397069360853392</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.599907901817211</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>8915616789.078533</v>
+        <v>5025518620.039047</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1404354235518243</v>
+        <v>0.2387177743638882</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1746837488856706</v>
+        <v>0.5087730024943622</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2806176908638835</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.120078892285656</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7391629647396463</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.663180402507269</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>6281148222.221082</v>
+        <v>4459072253.704494</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1772352300271536</v>
+        <v>0.3130998536388648</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3140770254456393</v>
+        <v>0.7337201169371134</v>
       </c>
       <c r="I79" t="n">
-        <v>2.385119482093884</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.421964965325117</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7776087506487626</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.130210047650134</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>9067806430.636768</v>
+        <v>13661759837.12377</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1334565519518946</v>
+        <v>0.1077531150854956</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1482486158732813</v>
+        <v>0.1127082179950756</v>
       </c>
       <c r="I80" t="n">
-        <v>2.592765178182058</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.578747526005706</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7913502147976429</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.248256769947151</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>6750897697.481</v>
+        <v>6355588510.274158</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1645146186135234</v>
+        <v>0.1594980430783541</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2658928670321763</v>
+        <v>0.2691958068403808</v>
       </c>
       <c r="I81" t="n">
-        <v>2.379507436253664</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.251760664977819</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.3448811252845309</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3.645861840712798</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>6010063873.751323</v>
+        <v>5317955811.668367</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1908952790020666</v>
+        <v>0.2443076787417692</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.365819661262469</v>
+        <v>0.5256780537119645</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2991949844379214</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.723349932371792</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.4196542371261952</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-11.11643467489569</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>8833170260.230772</v>
+        <v>7919161043.934458</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1295880636597278</v>
+        <v>0.1878751438120538</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1335952437491503</v>
+        <v>0.3550141516422111</v>
       </c>
       <c r="I83" t="n">
-        <v>2.452464032176535</v>
+        <v>6</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9817352293688932</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4553145538938401</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3.744485967297846</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.9088228991067825</v>
+      </c>
+      <c r="N83" t="n">
+        <v>14.4319720148378</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>8516074522.595573</v>
+        <v>6129284286.260178</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1617880557931129</v>
+        <v>0.2585507338193533</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.255564972358643</v>
+        <v>0.5687520598674979</v>
       </c>
       <c r="I84" t="n">
-        <v>2.951936111956196</v>
+        <v>12</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9861559501927535</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3682837504214936</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.694079161324408</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8239007861929938</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13.78393656253547</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>10551829853.93958</v>
+        <v>11046395732.65982</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.119900091975767</v>
+        <v>0.1138205827881614</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.09689836282525648</v>
+        <v>0.131057521550353</v>
       </c>
       <c r="I85" t="n">
-        <v>2.710618140826697</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.146987630900611</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7509208623597264</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.871429616293918</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>4059212186.734145</v>
+        <v>5586593961.360508</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3316817150874846</v>
+        <v>0.2761648189703544</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8991018847519732</v>
+        <v>0.6220207728006087</v>
       </c>
       <c r="I86" t="n">
-        <v>2.884591561873545</v>
+        <v>9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9828458495442338</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4076254149857481</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.093222628115335</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8701025903199462</v>
+      </c>
+      <c r="N86" t="n">
+        <v>14.30882917828359</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>7906217955.6021</v>
+        <v>10308350577.22421</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1374926489636872</v>
+        <v>0.1509375964994558</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1635368698309437</v>
+        <v>0.2433072087394091</v>
       </c>
       <c r="I87" t="n">
-        <v>2.328999023691675</v>
+        <v>9</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9816913459949826</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2778637321369353</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.963460945266522</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8732363517892998</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.50126609051948</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>8623266259.340595</v>
+        <v>10131294004.27434</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1363875444210086</v>
+        <v>0.1142766540494771</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1593508656668037</v>
+        <v>0.1324367773497769</v>
       </c>
       <c r="I88" t="n">
-        <v>2.519808582259186</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.304809267895921</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.730329440150968</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.301779535123439</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>5913364161.197062</v>
+        <v>7175739855.592401</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.225467174632807</v>
+        <v>0.2109897307411529</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4967738773420808</v>
+        <v>0.4249175434526926</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3484826456097995</v>
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2441567721519984</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4.272552591846379</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.7211787139061416</v>
+      </c>
+      <c r="N89" t="n">
+        <v>10.15102168627645</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>6835455695.056787</v>
+        <v>8105119399.453589</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1747420937661534</v>
+        <v>0.1392893841978576</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3046333227304016</v>
+        <v>0.2080805550722729</v>
       </c>
       <c r="I90" t="n">
-        <v>2.559092903140733</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.572452484757568</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7241086484774557</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.909720484791547</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>4032090109.122311</v>
+        <v>11708602803.84097</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3124748098137756</v>
+        <v>0.1015666070429757</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8263484190381216</v>
+        <v>0.09399891131520839</v>
       </c>
       <c r="I91" t="n">
-        <v>2.699394049146255</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.094579366245128</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7369776830698329</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.644974295151531</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>4013311870.779057</v>
+        <v>8275733325.346589</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3583188040955435</v>
+        <v>0.1199590140198752</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0.1496214338023168</v>
       </c>
       <c r="I92" t="n">
-        <v>3.081013166281277</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.418035684693652</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.4445484100850791</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5.472932517007929</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>7493316656.417</v>
+        <v>13057762456.72307</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1681400436909396</v>
+        <v>0.07943768646717377</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2796255446972755</v>
+        <v>0.02707638269299361</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3254534065402224</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.478161531495926</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7034362600808531</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.590563670121137</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>5728568852.699552</v>
+        <v>3979086195.980224</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2075916499527793</v>
+        <v>0.3370441387660418</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.4290635224779022</v>
+        <v>0.806132691299833</v>
       </c>
       <c r="I94" t="n">
-        <v>2.547868811460291</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.537965051431442</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7672925403603881</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.807885755776319</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>6365650445.173362</v>
+        <v>13191787936.45614</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2398976166147953</v>
+        <v>0.1000753321959974</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5514346699586508</v>
+        <v>0.08948898127643257</v>
       </c>
       <c r="I95" t="n">
-        <v>3.271822724848787</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.524547573274567</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7632760701741709</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.74097383020885</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>6684591343.257037</v>
+        <v>12761943068.59757</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.233153676861959</v>
+        <v>0.1186345536774422</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5258894307547139</v>
+        <v>0.1456159860502748</v>
       </c>
       <c r="I96" t="n">
-        <v>3.339167274931438</v>
+        <v>7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9802444627878254</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2651248148887778</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3.310305821015499</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8976401496373058</v>
+      </c>
+      <c r="N96" t="n">
+        <v>14.64249717173062</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>7775359620.916475</v>
+        <v>7770157300.280347</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2017931885464433</v>
+        <v>0.1955232231843216</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4070996424510447</v>
+        <v>0.3781435586524767</v>
       </c>
       <c r="I97" t="n">
-        <v>3.361615458292322</v>
+        <v>14</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.987294912206658</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3784982572493297</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.531766396622008</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.7541268089177068</v>
+      </c>
+      <c r="N97" t="n">
+        <v>12.55076978173213</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>4549219877.563893</v>
+        <v>9166438557.366657</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2349218434727087</v>
+        <v>0.1208759501376408</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5325870349266697</v>
+        <v>0.1523944422450788</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1754259811309369</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.183837209029228</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7195048657123989</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.20626010521875</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>10262666167.21194</v>
+        <v>8089808876.806285</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1360401719448395</v>
+        <v>0.1350199549375776</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1580350601700433</v>
+        <v>0.1951688994452901</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2081292660762901</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.250943351992936</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7160063768078823</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.06918418416471</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>10019998774.46641</v>
+        <v>5440926259.983244</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1163302088389799</v>
+        <v>0.2416746188366923</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.08337607140487771</v>
+        <v>0.5177151245551666</v>
       </c>
       <c r="I100" t="n">
-        <v>2.497360398898302</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.286529091441335</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.544552354869745</v>
+      </c>
+      <c r="N100" t="n">
+        <v>7.604518005953564</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>10131941138.16012</v>
+        <v>6526410019.753798</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1677846413455086</v>
+        <v>0.2424168195395856</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2782793230137474</v>
+        <v>0.519959696205766</v>
       </c>
       <c r="I101" t="n">
-        <v>3.642217750303367</v>
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.368669778590096</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.217175779999533</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.59568951305878</v>
+      </c>
+      <c r="N101" t="n">
+        <v>8.696614481176068</v>
       </c>
     </row>
   </sheetData>
